--- a/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +569,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -640,7 +646,6 @@
           <t>Sept. 29, 2024</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>BEFF-L002-2024</t>
@@ -803,7 +808,6 @@
           <t>JJR ACE CONSTRUCTION AND SUPPLY CORP</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -871,10 +875,6 @@
       <c r="O4" t="n">
         <v>0.98</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
           <t>January 10, 2024</t>
@@ -1572,7 +1572,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1581,16 +1580,6 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
           <t>DO would like to revert- with request for additional fund</t>
@@ -1770,7 +1759,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1779,17 +1767,6 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1842,7 +1819,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1851,17 +1827,6 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1914,7 +1879,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1923,17 +1887,6 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1986,7 +1939,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1995,17 +1947,6 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2058,7 +1999,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2067,17 +2007,6 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2130,7 +2059,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2139,17 +2067,6 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2202,7 +2119,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2211,17 +2127,6 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2274,7 +2179,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2283,17 +2187,6 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2346,7 +2239,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2355,23 +2247,14 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2424,7 +2307,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2433,23 +2315,14 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2502,7 +2375,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2511,23 +2383,14 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2580,7 +2443,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2589,23 +2451,14 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>44870</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2658,7 +2511,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2667,23 +2519,14 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>44870</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2736,7 +2579,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2745,23 +2587,14 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2814,7 +2647,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2823,23 +2655,14 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2892,7 +2715,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2901,23 +2723,14 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2970,7 +2783,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2979,23 +2791,14 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3048,7 +2851,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3057,23 +2859,14 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3126,7 +2919,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3135,23 +2927,14 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3204,7 +2987,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3213,23 +2995,14 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3282,7 +3055,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3291,23 +3063,14 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3360,7 +3123,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3369,23 +3131,14 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>44870</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3438,7 +3191,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3447,23 +3199,14 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3516,7 +3259,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3525,23 +3267,14 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="P35" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3594,7 +3327,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3603,23 +3335,87 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA36" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of Health Facility with 2 units Comfort Rooms and 2 units Handwashing</t>
@@ -625,11 +645,6 @@
       <c r="K2" t="n">
         <v>5163932.14</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>4464112.6</v>
       </c>
@@ -729,11 +744,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -742,11 +752,6 @@
       <c r="K3" t="n">
         <v>5000000</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M3" t="n">
         <v>3545990.37</v>
       </c>
@@ -846,11 +851,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -859,11 +859,6 @@
       <c r="K4" t="n">
         <v>3600000</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>3324097.66</v>
       </c>
@@ -948,11 +943,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -961,11 +951,6 @@
       <c r="K5" t="n">
         <v>4335202</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M5" t="n">
         <v>3444215.43</v>
       </c>
@@ -1070,11 +1055,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1083,11 +1063,6 @@
       <c r="K6" t="n">
         <v>3265907.06</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>3263892.8</v>
       </c>
@@ -1192,11 +1167,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1205,11 +1175,6 @@
       <c r="K7" t="n">
         <v>5110702.18</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>4002640.57</v>
       </c>
@@ -1314,11 +1279,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction of Clinic &amp; Const of 4UNITS 3 Seater CR with Handwashing</t>
@@ -1327,11 +1287,6 @@
       <c r="K8" t="n">
         <v>5487480.98</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>4236026.94</v>
       </c>
@@ -1432,11 +1387,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1445,11 +1395,6 @@
       <c r="K9" t="n">
         <v>5500000</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M9" t="n">
         <v>4553697.99</v>
       </c>
@@ -1554,11 +1499,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1567,11 +1507,6 @@
       <c r="K10" t="n">
         <v>3000000</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1623,11 +1558,6 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1636,11 +1566,6 @@
       <c r="K11" t="n">
         <v>3000000</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M11" t="n">
         <v>2390532.83</v>
       </c>
@@ -3346,7 +3271,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA36" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF36" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
@@ -58,13 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,2709 +571,3022 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Davao City</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4" t="n">
         <v>304359</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Daniel R. Aguinaldo NHS</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>DAVAO CITY</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="inlineStr"/>
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Construction of Health Facility with 2 units Comfort Rooms and 2 units Handwashing</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4" t="n">
         <v>5163932.14</v>
       </c>
-      <c r="M2" t="n">
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="n">
         <v>4464112.6</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="O2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>Sept. 29, 2024</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr"/>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>BEFF-L002-2024</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>#3s.2024 INF DL-XI</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>Oct 27-Nov 16, 2023</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>Nov.3, 2023</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>Nov.16, 2023</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>Jan.12, 2024</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>May 29, 2024</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>Panabo General Contractors Development</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>work suspended due to change location and Approval of Demolition Permit</t>
         </is>
       </c>
+      <c r="AA2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>128302</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Kapatagan ES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>LAAK (SAN VICENTE)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4" t="n">
         <v>5000000</v>
       </c>
-      <c r="M3" t="n">
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="n">
         <v>3545990.37</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="O3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>June 5, 2025</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>June 4, 2025</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>SDDO-016-2024</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>SDDO-016-2024</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>Aug. 6, 2024</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>Aug. 18, 2024</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>September 9, 2024</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>September 30, 2024</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>January 6, 2025</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>JJR ACE CONSTRUCTION AND SUPPLY CORP</t>
         </is>
       </c>
+      <c r="Z3" s="4" t="inlineStr"/>
+      <c r="AA3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>128652</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Gov. Dujali ES</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4" t="n">
         <v>3600000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="n">
         <v>3324097.66</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="4" t="n">
         <v>0.98</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr"/>
+      <c r="Q4" s="4" t="inlineStr"/>
+      <c r="R4" s="4" t="inlineStr"/>
+      <c r="S4" s="4" t="inlineStr"/>
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>January 10, 2024</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>January 17, 2024</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>January 30, 2924</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>March 19, 2024</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>MJTP Construction</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
+      <c r="AA4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Davao del Sur</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>304298</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Tacul Agricultural High School</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4" t="n">
         <v>4335202</v>
       </c>
-      <c r="M5" t="n">
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="n">
         <v>3444215.43</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>February 11, 2025</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>February 11, 2025</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>DS- SCHBLDG - 2024 - E - LOT 2</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>DS- SCHBLDG - 2024 - E - LOT 2</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>May 21, 2024</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>June 07, 2024</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>August 09, 2024</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>September 5, 2024</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>IRE INDUSTRIAL FACILITIES CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
+      <c r="AA5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Davao Occidental</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>304292</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>John Martin Johnson High School (Lamidan)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>DON MARCELINO</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4" t="n">
         <v>3265907.06</v>
       </c>
-      <c r="M6" t="n">
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="n">
         <v>3263892.8</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="O6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>November 14,2024</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>November 14,2024</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>ITB W-02-2024</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>contract no. 2024-007</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>April 15, 2024- April 29, 2024</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>April 29, 2024</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>resolution no. 08,s. 2024</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>July 17, 2024</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>Digos Constrak Corporation</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
+      <c r="AA6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Davao Oriental</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>129356</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Gregorio Moralizon ES 1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>MANAY</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4" t="n">
         <v>5110702.18</v>
       </c>
-      <c r="M7" t="n">
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="n">
         <v>4002640.57</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="O7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>October 16, 2024</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>GS 2023 154</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>2024-002</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>December 8, 2023</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>December 27,2023</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>May 2, 2024</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>May 22, 2024</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>ELLE</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Completed w/ Time Extension</t>
         </is>
       </c>
+      <c r="AA7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Digos City</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>304400</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Digos City NHS (Davao Del Sur NHS)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>CITY OF DIGOS (Capital)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>Construction of Clinic &amp; Const of 4UNITS 3 Seater CR with Handwashing</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4" t="n">
         <v>5487480.98</v>
       </c>
-      <c r="M8" t="n">
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="n">
         <v>4236026.94</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="O8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>Nov. 22, 2024</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>Nov. 12, 2024</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="4" t="n">
         <v>42059</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="4" t="n">
         <v>42059</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>March 6-26, 2024</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>March 12, 2024</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>March 26, 2024</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>June 06,2024</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>RRJJ Quinto Builders Corp.</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Island Garden City of Samal</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>128598</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Angel Villarica Central Elementary School</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>ISLAND GARDEN CITY OF SAMAL</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4" t="n">
         <v>5500000</v>
       </c>
-      <c r="M9" t="n">
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="n">
         <v>4553697.99</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="O9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>infra 001-11-2023</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>infra 001-11-2023</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>October 31, 2023</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>November 8, 2025</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>November 20, 2023</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>December 12, 2025</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>May 23, 2024</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>R. Fabale Const. Corp.</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Panabo City</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>129783</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Gredu ES</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>CITY OF PANABO</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="4" t="n">
         <v>3000000</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr"/>
+      <c r="M10" s="4" t="inlineStr"/>
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr"/>
+      <c r="Q10" s="4" t="inlineStr"/>
+      <c r="R10" s="4" t="inlineStr"/>
+      <c r="S10" s="4" t="inlineStr"/>
+      <c r="T10" s="4" t="inlineStr"/>
+      <c r="U10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="inlineStr"/>
+      <c r="W10" s="4" t="inlineStr"/>
+      <c r="X10" s="4" t="inlineStr"/>
+      <c r="Y10" s="4" t="inlineStr"/>
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>DO would like to revert- with request for additional fund</t>
         </is>
       </c>
+      <c r="AA10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Tagum City</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
         <v>128768</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>APOKON ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>CITY OF TAGUM (Capital)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4" t="n">
         <v>3000000</v>
       </c>
-      <c r="M11" t="n">
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="n">
         <v>2390532.83</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>March 3, 2025</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>June 30, 2025</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>NEWCON 2024 - HEALTH FACILITY - RXI - TAGUM CITY – 001</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>NEWCON 2024 - HEALTH FACILITY - RXI - TAGUM CITY – 001</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>July 8, 2024</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>July 22, 2024</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t>Aug. 12, 2024</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>Oct.. 8, 2024</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>Al Handasa Const.</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>Physically Completed</t>
         </is>
       </c>
+      <c r="AA11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4" t="n">
         <v>500859</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Igangon Integrated School</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR INTEGRATED SCHOOL (OPTION 1C - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 2 SETS OF 12 FAUCETS</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4" t="n">
         <v>497885.97</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
+      <c r="O12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="inlineStr"/>
+      <c r="Q12" s="4" t="inlineStr"/>
+      <c r="R12" s="4" t="inlineStr"/>
+      <c r="S12" s="4" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr"/>
+      <c r="U12" s="4" t="inlineStr"/>
+      <c r="V12" s="4" t="inlineStr"/>
+      <c r="W12" s="4" t="inlineStr"/>
+      <c r="X12" s="4" t="inlineStr"/>
+      <c r="Y12" s="4" t="inlineStr"/>
+      <c r="Z12" s="4" t="inlineStr"/>
+      <c r="AA12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4" t="n">
         <v>315906</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Pinamuno National High School</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4" t="n">
         <v>254314.72</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
+      <c r="O13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4" t="inlineStr"/>
+      <c r="Q13" s="4" t="inlineStr"/>
+      <c r="R13" s="4" t="inlineStr"/>
+      <c r="S13" s="4" t="inlineStr"/>
+      <c r="T13" s="4" t="inlineStr"/>
+      <c r="U13" s="4" t="inlineStr"/>
+      <c r="V13" s="4" t="inlineStr"/>
+      <c r="W13" s="4" t="inlineStr"/>
+      <c r="X13" s="4" t="inlineStr"/>
+      <c r="Y13" s="4" t="inlineStr"/>
+      <c r="Z13" s="4" t="inlineStr"/>
+      <c r="AA13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4" t="n">
         <v>128581</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Mamangan ES</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4" t="n">
         <v>262714.72</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
+      <c r="O14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4" t="inlineStr"/>
+      <c r="Q14" s="4" t="inlineStr"/>
+      <c r="R14" s="4" t="inlineStr"/>
+      <c r="S14" s="4" t="inlineStr"/>
+      <c r="T14" s="4" t="inlineStr"/>
+      <c r="U14" s="4" t="inlineStr"/>
+      <c r="V14" s="4" t="inlineStr"/>
+      <c r="W14" s="4" t="inlineStr"/>
+      <c r="X14" s="4" t="inlineStr"/>
+      <c r="Y14" s="4" t="inlineStr"/>
+      <c r="Z14" s="4" t="inlineStr"/>
+      <c r="AA14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4" t="n">
         <v>128656</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Libuton ES</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4" t="n">
         <v>262714.72</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
+      <c r="O15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4" t="inlineStr"/>
+      <c r="Q15" s="4" t="inlineStr"/>
+      <c r="R15" s="4" t="inlineStr"/>
+      <c r="S15" s="4" t="inlineStr"/>
+      <c r="T15" s="4" t="inlineStr"/>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr"/>
+      <c r="W15" s="4" t="inlineStr"/>
+      <c r="X15" s="4" t="inlineStr"/>
+      <c r="Y15" s="4" t="inlineStr"/>
+      <c r="Z15" s="4" t="inlineStr"/>
+      <c r="AA15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4" t="n">
         <v>128581</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Mamangan ES</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="G16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4" t="n">
         <v>3259817.87</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
+      <c r="O16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" s="4" t="inlineStr"/>
+      <c r="X16" s="4" t="inlineStr"/>
+      <c r="Y16" s="4" t="inlineStr"/>
+      <c r="Z16" s="4" t="inlineStr"/>
+      <c r="AA16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4" t="n">
         <v>128590</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Sabangan ES</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="G17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4" t="n">
         <v>3213617.87</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
+      <c r="O17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4" t="inlineStr"/>
+      <c r="Q17" s="4" t="inlineStr"/>
+      <c r="R17" s="4" t="inlineStr"/>
+      <c r="S17" s="4" t="inlineStr"/>
+      <c r="T17" s="4" t="inlineStr"/>
+      <c r="U17" s="4" t="inlineStr"/>
+      <c r="V17" s="4" t="inlineStr"/>
+      <c r="W17" s="4" t="inlineStr"/>
+      <c r="X17" s="4" t="inlineStr"/>
+      <c r="Y17" s="4" t="inlineStr"/>
+      <c r="Z17" s="4" t="inlineStr"/>
+      <c r="AA17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4" t="n">
         <v>128657</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Linao ES</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="G18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>REPAIR/CONVERSION OF 1 CL TO SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="4" t="n">
         <v>1010630.12</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
+      <c r="O18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4" t="inlineStr"/>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
+      <c r="X18" s="4" t="inlineStr"/>
+      <c r="Y18" s="4" t="inlineStr"/>
+      <c r="Z18" s="4" t="inlineStr"/>
+      <c r="AA18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4" t="n">
         <v>500859</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Igangon Integrated School</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="G19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="4" t="n">
         <v>3226217.87</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
+      <c r="O19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4" t="inlineStr"/>
+      <c r="Q19" s="4" t="inlineStr"/>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="4" t="inlineStr"/>
+      <c r="X19" s="4" t="inlineStr"/>
+      <c r="Y19" s="4" t="inlineStr"/>
+      <c r="Z19" s="4" t="inlineStr"/>
+      <c r="AA19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4" t="n">
         <v>129374</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Badas ES</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="n">
+      <c r="O20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="R20" s="4" t="inlineStr"/>
+      <c r="S20" s="4" t="inlineStr"/>
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z20" s="4" t="inlineStr"/>
+      <c r="AA20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4" t="n">
         <v>129380</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Rabat-Rocamora Mati CES I</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3" t="n">
+      <c r="O21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr"/>
+      <c r="W21" s="4" t="inlineStr"/>
+      <c r="X21" s="4" t="inlineStr"/>
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
+      <c r="Z21" s="4" t="inlineStr"/>
+      <c r="AA21" s="4" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4" t="n">
         <v>129381</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Rabat-Rocamora Mati CES II</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3" t="n">
+      <c r="O22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Q22" s="4" t="inlineStr"/>
+      <c r="R22" s="4" t="inlineStr"/>
+      <c r="S22" s="4" t="inlineStr"/>
+      <c r="T22" s="4" t="inlineStr"/>
+      <c r="U22" s="4" t="inlineStr"/>
+      <c r="V22" s="4" t="inlineStr"/>
+      <c r="W22" s="4" t="inlineStr"/>
+      <c r="X22" s="4" t="inlineStr"/>
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
+      <c r="Z22" s="4" t="inlineStr"/>
+      <c r="AA22" s="4" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4" t="n">
         <v>129382</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Mayor Luisito G. Rabat MS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3" t="n">
+      <c r="O23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5" t="n">
         <v>44870</v>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Q23" s="4" t="inlineStr"/>
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr"/>
+      <c r="T23" s="4" t="inlineStr"/>
+      <c r="U23" s="4" t="inlineStr"/>
+      <c r="V23" s="4" t="inlineStr"/>
+      <c r="W23" s="4" t="inlineStr"/>
+      <c r="X23" s="4" t="inlineStr"/>
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
+      <c r="Z23" s="4" t="inlineStr"/>
+      <c r="AA23" s="4" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4" t="n">
         <v>129383</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Mayor Santiago Garcia MS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3" t="n">
+      <c r="O24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="n">
         <v>44870</v>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="Q24" s="4" t="inlineStr"/>
+      <c r="R24" s="4" t="inlineStr"/>
+      <c r="S24" s="4" t="inlineStr"/>
+      <c r="T24" s="4" t="inlineStr"/>
+      <c r="U24" s="4" t="inlineStr"/>
+      <c r="V24" s="4" t="inlineStr"/>
+      <c r="W24" s="4" t="inlineStr"/>
+      <c r="X24" s="4" t="inlineStr"/>
+      <c r="Y24" s="4" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
+      <c r="Z24" s="4" t="inlineStr"/>
+      <c r="AA24" s="4" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4" t="n">
         <v>205504</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Rabat Rocamora Mati Central School SPED Center</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3" t="n">
+      <c r="O25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
+      <c r="X25" s="4" t="inlineStr"/>
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
+      <c r="Z25" s="4" t="inlineStr"/>
+      <c r="AA25" s="4" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4" t="n">
         <v>500454</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Licop Integrated School</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3" t="n">
+      <c r="O26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
+      <c r="X26" s="4" t="inlineStr"/>
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z26" s="4" t="inlineStr"/>
+      <c r="AA26" s="4" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="4" t="n">
         <v>129388</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Antonino Vicentino ES</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="4" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3" t="n">
+      <c r="O27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr"/>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
+      <c r="X27" s="4" t="inlineStr"/>
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z27" s="4" t="inlineStr"/>
+      <c r="AA27" s="4" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="4" t="n">
         <v>129390</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Bobon ES</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="4" t="n">
         <v>218862.01</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="3" t="n">
+      <c r="O28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Q28" s="4" t="inlineStr"/>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr"/>
+      <c r="T28" s="4" t="inlineStr"/>
+      <c r="U28" s="4" t="inlineStr"/>
+      <c r="V28" s="4" t="inlineStr"/>
+      <c r="W28" s="4" t="inlineStr"/>
+      <c r="X28" s="4" t="inlineStr"/>
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z28" s="4" t="inlineStr"/>
+      <c r="AA28" s="4" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="4" t="n">
         <v>129392</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Cabubuanan Elementary School</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3" t="n">
+      <c r="O29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr"/>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr"/>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr"/>
+      <c r="W29" s="4" t="inlineStr"/>
+      <c r="X29" s="4" t="inlineStr"/>
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z29" s="4" t="inlineStr"/>
+      <c r="AA29" s="4" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="4" t="n">
         <v>129395</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Don Luis Rabat Sr. MS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="3" t="n">
+      <c r="O30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Q30" s="4" t="inlineStr"/>
+      <c r="R30" s="4" t="inlineStr"/>
+      <c r="S30" s="4" t="inlineStr"/>
+      <c r="T30" s="4" t="inlineStr"/>
+      <c r="U30" s="4" t="inlineStr"/>
+      <c r="V30" s="4" t="inlineStr"/>
+      <c r="W30" s="4" t="inlineStr"/>
+      <c r="X30" s="4" t="inlineStr"/>
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z30" s="4" t="inlineStr"/>
+      <c r="AA30" s="4" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="4" t="n">
         <v>129396</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Don Salvador Lopez ES</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="4" t="n">
         <v>219912.01</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="M31" s="4" t="inlineStr"/>
+      <c r="N31" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="3" t="n">
+      <c r="O31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Q31" s="4" t="inlineStr"/>
+      <c r="R31" s="4" t="inlineStr"/>
+      <c r="S31" s="4" t="inlineStr"/>
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
+      <c r="V31" s="4" t="inlineStr"/>
+      <c r="W31" s="4" t="inlineStr"/>
+      <c r="X31" s="4" t="inlineStr"/>
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z31" s="4" t="inlineStr"/>
+      <c r="AA31" s="4" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="4" t="n">
         <v>129418</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Magum ES</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="4" t="n">
         <v>220437.01</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="3" t="n">
+      <c r="O32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Q32" s="4" t="inlineStr"/>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr"/>
+      <c r="T32" s="4" t="inlineStr"/>
+      <c r="U32" s="4" t="inlineStr"/>
+      <c r="V32" s="4" t="inlineStr"/>
+      <c r="W32" s="4" t="inlineStr"/>
+      <c r="X32" s="4" t="inlineStr"/>
+      <c r="Y32" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z32" s="4" t="inlineStr"/>
+      <c r="AA32" s="4" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="4" t="n">
         <v>129398</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Gov. Leopoldo Lopez Sr. MS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="M33" s="4" t="inlineStr"/>
+      <c r="N33" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="3" t="n">
+      <c r="O33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5" t="n">
         <v>44870</v>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Q33" s="4" t="inlineStr"/>
+      <c r="R33" s="4" t="inlineStr"/>
+      <c r="S33" s="4" t="inlineStr"/>
+      <c r="T33" s="4" t="inlineStr"/>
+      <c r="U33" s="4" t="inlineStr"/>
+      <c r="V33" s="4" t="inlineStr"/>
+      <c r="W33" s="4" t="inlineStr"/>
+      <c r="X33" s="4" t="inlineStr"/>
+      <c r="Y33" s="4" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
+      <c r="Z33" s="4" t="inlineStr"/>
+      <c r="AA33" s="4" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="4" t="n">
         <v>129405</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Taguibo ES</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="4" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="M34" s="4" t="inlineStr"/>
+      <c r="N34" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="3" t="n">
+      <c r="O34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Q34" s="4" t="inlineStr"/>
+      <c r="R34" s="4" t="inlineStr"/>
+      <c r="S34" s="4" t="inlineStr"/>
+      <c r="T34" s="4" t="inlineStr"/>
+      <c r="U34" s="4" t="inlineStr"/>
+      <c r="V34" s="4" t="inlineStr"/>
+      <c r="W34" s="4" t="inlineStr"/>
+      <c r="X34" s="4" t="inlineStr"/>
+      <c r="Y34" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z34" s="4" t="inlineStr"/>
+      <c r="AA34" s="4" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="4" t="n">
         <v>129409</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>Vicente Almario Sr. MS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="4" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="M35" s="4" t="inlineStr"/>
+      <c r="N35" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="3" t="n">
+      <c r="O35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Q35" s="4" t="inlineStr"/>
+      <c r="R35" s="4" t="inlineStr"/>
+      <c r="S35" s="4" t="inlineStr"/>
+      <c r="T35" s="4" t="inlineStr"/>
+      <c r="U35" s="4" t="inlineStr"/>
+      <c r="V35" s="4" t="inlineStr"/>
+      <c r="W35" s="4" t="inlineStr"/>
+      <c r="X35" s="4" t="inlineStr"/>
+      <c r="Y35" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z35" s="4" t="inlineStr"/>
+      <c r="AA35" s="4" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="4" t="n">
         <v>129414</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>Francisco Hinayon ES</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="4" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" s="4" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="M36" s="4" t="inlineStr"/>
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="3" t="n">
+      <c r="O36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="n">
         <v>44851</v>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Q36" s="4" t="inlineStr"/>
+      <c r="R36" s="4" t="inlineStr"/>
+      <c r="S36" s="4" t="inlineStr"/>
+      <c r="T36" s="4" t="inlineStr"/>
+      <c r="U36" s="4" t="inlineStr"/>
+      <c r="V36" s="4" t="inlineStr"/>
+      <c r="W36" s="4" t="inlineStr"/>
+      <c r="X36" s="4" t="inlineStr"/>
+      <c r="Y36" s="4" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
+      <c r="Z36" s="4" t="inlineStr"/>
+      <c r="AA36" s="4" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AF2:AF36" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA36" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,3154 +447,3184 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="48" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="149" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="56" customWidth="1" min="18" max="18"/>
+    <col width="56" customWidth="1" min="19" max="19"/>
+    <col width="32" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="40" customWidth="1" min="25" max="25"/>
+    <col width="73" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Davao City</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>304359</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Daniel R. Aguinaldo NHS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>DAVAO CITY</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="inlineStr"/>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="inlineStr"/>
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>Construction of Health Facility with 2 units Comfort Rooms and 2 units Handwashing</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>5163932.14</v>
       </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="n">
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="n">
         <v>4464112.6</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>Sept. 29, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>BEFF-L002-2024</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>#3s.2024 INF DL-XI</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>Oct 27-Nov 16, 2023</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>Nov.3, 2023</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>Nov.16, 2023</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>Jan.12, 2024</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>May 29, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>Panabo General Contractors Development</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>work suspended due to change location and Approval of Demolition Permit</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="n"/>
+      <c r="AA2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>128302</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Kapatagan ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>LAAK (SAN VICENTE)</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="n">
         <v>3545990.37</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>June 5, 2025</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>June 4, 2025</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>SDDO-016-2024</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>SDDO-016-2024</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>Aug. 6, 2024</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>Aug. 18, 2024</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>September 9, 2024</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>September 30, 2024</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>January 6, 2025</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>JJR ACE CONSTRUCTION AND SUPPLY CORP</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr"/>
-      <c r="AA3" s="4" t="n"/>
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>128652</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Gov. Dujali ES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>3600000</v>
       </c>
-      <c r="L4" s="4" t="inlineStr"/>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
         <v>3324097.66</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="5" t="n">
         <v>0.98</v>
       </c>
-      <c r="P4" s="4" t="inlineStr"/>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr"/>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>January 10, 2024</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>January 17, 2024</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>January 30, 2924</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>March 19, 2024</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>MJTP Construction</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="n"/>
+      <c r="AA4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Davao del Sur</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>304298</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Tacul Agricultural High School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>4335202</v>
       </c>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
         <v>3444215.43</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>February 11, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>February 11, 2025</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>DS- SCHBLDG - 2024 - E - LOT 2</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>DS- SCHBLDG - 2024 - E - LOT 2</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>May 21, 2024</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>June 07, 2024</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>August 09, 2024</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>September 5, 2024</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>IRE INDUSTRIAL FACILITIES CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="n"/>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Davao Occidental</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>304292</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>John Martin Johnson High School (Lamidan)</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>DON MARCELINO</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>3265907.06</v>
       </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
         <v>3263892.8</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>November 14,2024</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>November 14,2024</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>ITB W-02-2024</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>contract no. 2024-007</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>April 15, 2024- April 29, 2024</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>April 29, 2024</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>resolution no. 08,s. 2024</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>July 17, 2024</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>Digos Constrak Corporation</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="n"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Davao Oriental</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>129356</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Gregorio Moralizon ES 1</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>MANAY</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>5110702.18</v>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
         <v>4002640.57</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>October 16, 2024</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>GS 2023 154</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>2024-002</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>December 8, 2023</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>December 27,2023</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>May 2, 2024</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>May 22, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>ELLE</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Completed w/ Time Extension</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="n"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Digos City</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>304400</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Digos City NHS (Davao Del Sur NHS)</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>CITY OF DIGOS (Capital)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>Construction of Clinic &amp; Const of 4UNITS 3 Seater CR with Handwashing</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>5487480.98</v>
       </c>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="n">
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
         <v>4236026.94</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>Nov. 22, 2024</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>Nov. 12, 2024</t>
         </is>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="5" t="n">
         <v>42059</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="5" t="n">
         <v>42059</v>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>March 6-26, 2024</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>March 12, 2024</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>March 26, 2024</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>June 06,2024</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>RRJJ Quinto Builders Corp.</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="n"/>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Island Garden City of Samal</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>128598</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Angel Villarica Central Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>ISLAND GARDEN CITY OF SAMAL</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>5500000</v>
       </c>
-      <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="n">
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
         <v>4553697.99</v>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>infra 001-11-2023</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>infra 001-11-2023</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>October 31, 2023</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>November 8, 2025</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>November 20, 2023</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>December 12, 2025</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>May 23, 2024</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>R. Fabale Const. Corp.</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA9" s="4" t="n"/>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Panabo City</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>129783</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Gredu ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>CITY OF PANABO</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="inlineStr"/>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>3000000</v>
       </c>
-      <c r="L10" s="4" t="inlineStr"/>
-      <c r="M10" s="4" t="inlineStr"/>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="4" t="inlineStr"/>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr"/>
-      <c r="S10" s="4" t="inlineStr"/>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
-      <c r="X10" s="4" t="inlineStr"/>
-      <c r="Y10" s="4" t="inlineStr"/>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr"/>
+      <c r="W10" s="5" t="inlineStr"/>
+      <c r="X10" s="5" t="inlineStr"/>
+      <c r="Y10" s="5" t="inlineStr"/>
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>DO would like to revert- with request for additional fund</t>
         </is>
       </c>
-      <c r="AA10" s="4" t="n"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Tagum City</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>128768</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>APOKON ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>CITY OF TAGUM (Capital)</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>3000000</v>
       </c>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="n">
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
         <v>2390532.83</v>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>March 3, 2025</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>June 30, 2025</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>NEWCON 2024 - HEALTH FACILITY - RXI - TAGUM CITY – 001</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>NEWCON 2024 - HEALTH FACILITY - RXI - TAGUM CITY – 001</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>July 8, 2024</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>July 22, 2024</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>Aug. 12, 2024</t>
         </is>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>Oct.. 8, 2024</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>Al Handasa Const.</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>Physically Completed</t>
         </is>
       </c>
-      <c r="AA11" s="4" t="n"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>500859</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Igangon Integrated School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR INTEGRATED SCHOOL (OPTION 1C - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 2 SETS OF 12 FAUCETS</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>497885.97</v>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr"/>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4" t="inlineStr"/>
-      <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="4" t="inlineStr"/>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="4" t="inlineStr"/>
-      <c r="W12" s="4" t="inlineStr"/>
-      <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr"/>
-      <c r="Z12" s="4" t="inlineStr"/>
-      <c r="AA12" s="4" t="n"/>
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="5" t="inlineStr"/>
+      <c r="W12" s="5" t="inlineStr"/>
+      <c r="X12" s="5" t="inlineStr"/>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>315906</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Pinamuno National High School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>254314.72</v>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr"/>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4" t="inlineStr"/>
-      <c r="Q13" s="4" t="inlineStr"/>
-      <c r="R13" s="4" t="inlineStr"/>
-      <c r="S13" s="4" t="inlineStr"/>
-      <c r="T13" s="4" t="inlineStr"/>
-      <c r="U13" s="4" t="inlineStr"/>
-      <c r="V13" s="4" t="inlineStr"/>
-      <c r="W13" s="4" t="inlineStr"/>
-      <c r="X13" s="4" t="inlineStr"/>
-      <c r="Y13" s="4" t="inlineStr"/>
-      <c r="Z13" s="4" t="inlineStr"/>
-      <c r="AA13" s="4" t="n"/>
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="5" t="inlineStr"/>
+      <c r="V13" s="5" t="inlineStr"/>
+      <c r="W13" s="5" t="inlineStr"/>
+      <c r="X13" s="5" t="inlineStr"/>
+      <c r="Y13" s="5" t="inlineStr"/>
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>128581</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Mamangan ES</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>262714.72</v>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr"/>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4" t="inlineStr"/>
-      <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="4" t="inlineStr"/>
-      <c r="S14" s="4" t="inlineStr"/>
-      <c r="T14" s="4" t="inlineStr"/>
-      <c r="U14" s="4" t="inlineStr"/>
-      <c r="V14" s="4" t="inlineStr"/>
-      <c r="W14" s="4" t="inlineStr"/>
-      <c r="X14" s="4" t="inlineStr"/>
-      <c r="Y14" s="4" t="inlineStr"/>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="4" t="n"/>
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="5" t="inlineStr"/>
+      <c r="V14" s="5" t="inlineStr"/>
+      <c r="W14" s="5" t="inlineStr"/>
+      <c r="X14" s="5" t="inlineStr"/>
+      <c r="Y14" s="5" t="inlineStr"/>
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>128656</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Libuton ES</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>262714.72</v>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4" t="inlineStr"/>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr"/>
-      <c r="W15" s="4" t="inlineStr"/>
-      <c r="X15" s="4" t="inlineStr"/>
-      <c r="Y15" s="4" t="inlineStr"/>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="4" t="n"/>
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="R15" s="5" t="inlineStr"/>
+      <c r="S15" s="5" t="inlineStr"/>
+      <c r="T15" s="5" t="inlineStr"/>
+      <c r="U15" s="5" t="inlineStr"/>
+      <c r="V15" s="5" t="inlineStr"/>
+      <c r="W15" s="5" t="inlineStr"/>
+      <c r="X15" s="5" t="inlineStr"/>
+      <c r="Y15" s="5" t="inlineStr"/>
+      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="AA15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>128581</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Mamangan ES</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>3259817.87</v>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr"/>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr"/>
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4" t="inlineStr"/>
-      <c r="Q16" s="4" t="inlineStr"/>
-      <c r="R16" s="4" t="inlineStr"/>
-      <c r="S16" s="4" t="inlineStr"/>
-      <c r="T16" s="4" t="inlineStr"/>
-      <c r="U16" s="4" t="inlineStr"/>
-      <c r="V16" s="4" t="inlineStr"/>
-      <c r="W16" s="4" t="inlineStr"/>
-      <c r="X16" s="4" t="inlineStr"/>
-      <c r="Y16" s="4" t="inlineStr"/>
-      <c r="Z16" s="4" t="inlineStr"/>
-      <c r="AA16" s="4" t="n"/>
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5" t="inlineStr"/>
+      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="R16" s="5" t="inlineStr"/>
+      <c r="S16" s="5" t="inlineStr"/>
+      <c r="T16" s="5" t="inlineStr"/>
+      <c r="U16" s="5" t="inlineStr"/>
+      <c r="V16" s="5" t="inlineStr"/>
+      <c r="W16" s="5" t="inlineStr"/>
+      <c r="X16" s="5" t="inlineStr"/>
+      <c r="Y16" s="5" t="inlineStr"/>
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>128590</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Sabangan ES</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>3213617.87</v>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr"/>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr"/>
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="inlineStr"/>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr"/>
-      <c r="V17" s="4" t="inlineStr"/>
-      <c r="W17" s="4" t="inlineStr"/>
-      <c r="X17" s="4" t="inlineStr"/>
-      <c r="Y17" s="4" t="inlineStr"/>
-      <c r="Z17" s="4" t="inlineStr"/>
-      <c r="AA17" s="4" t="n"/>
+      <c r="O17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5" t="inlineStr"/>
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr"/>
+      <c r="U17" s="5" t="inlineStr"/>
+      <c r="V17" s="5" t="inlineStr"/>
+      <c r="W17" s="5" t="inlineStr"/>
+      <c r="X17" s="5" t="inlineStr"/>
+      <c r="Y17" s="5" t="inlineStr"/>
+      <c r="Z17" s="5" t="inlineStr"/>
+      <c r="AA17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>128657</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Linao ES</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="G18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>REPAIR/CONVERSION OF 1 CL TO SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>1010630.12</v>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr"/>
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4" t="inlineStr"/>
-      <c r="Q18" s="4" t="inlineStr"/>
-      <c r="R18" s="4" t="inlineStr"/>
-      <c r="S18" s="4" t="inlineStr"/>
-      <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="4" t="inlineStr"/>
-      <c r="V18" s="4" t="inlineStr"/>
-      <c r="W18" s="4" t="inlineStr"/>
-      <c r="X18" s="4" t="inlineStr"/>
-      <c r="Y18" s="4" t="inlineStr"/>
-      <c r="Z18" s="4" t="inlineStr"/>
-      <c r="AA18" s="4" t="n"/>
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5" t="inlineStr"/>
+      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="inlineStr"/>
+      <c r="T18" s="5" t="inlineStr"/>
+      <c r="U18" s="5" t="inlineStr"/>
+      <c r="V18" s="5" t="inlineStr"/>
+      <c r="W18" s="5" t="inlineStr"/>
+      <c r="X18" s="5" t="inlineStr"/>
+      <c r="Y18" s="5" t="inlineStr"/>
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>500859</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Igangon Integrated School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>3226217.87</v>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="L19" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr"/>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
-      <c r="Y19" s="4" t="inlineStr"/>
-      <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="4" t="n"/>
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5" t="inlineStr"/>
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr"/>
+      <c r="V19" s="5" t="inlineStr"/>
+      <c r="W19" s="5" t="inlineStr"/>
+      <c r="X19" s="5" t="inlineStr"/>
+      <c r="Y19" s="5" t="inlineStr"/>
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>129374</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Badas ES</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr"/>
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="5" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="inlineStr"/>
-      <c r="U20" s="4" t="inlineStr"/>
-      <c r="V20" s="4" t="inlineStr"/>
-      <c r="W20" s="4" t="inlineStr"/>
-      <c r="X20" s="4" t="inlineStr"/>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr"/>
+      <c r="U20" s="5" t="inlineStr"/>
+      <c r="V20" s="5" t="inlineStr"/>
+      <c r="W20" s="5" t="inlineStr"/>
+      <c r="X20" s="5" t="inlineStr"/>
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="inlineStr"/>
-      <c r="AA20" s="4" t="n"/>
+      <c r="Z20" s="5" t="inlineStr"/>
+      <c r="AA20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>129380</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Rabat-Rocamora Mati CES I</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="L21" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr"/>
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="5" t="n">
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr"/>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr"/>
-      <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr"/>
-      <c r="V21" s="4" t="inlineStr"/>
-      <c r="W21" s="4" t="inlineStr"/>
-      <c r="X21" s="4" t="inlineStr"/>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr"/>
+      <c r="U21" s="5" t="inlineStr"/>
+      <c r="V21" s="5" t="inlineStr"/>
+      <c r="W21" s="5" t="inlineStr"/>
+      <c r="X21" s="5" t="inlineStr"/>
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="inlineStr"/>
-      <c r="AA21" s="4" t="n"/>
+      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="AA21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>129381</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Rabat-Rocamora Mati CES II</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr"/>
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="5" t="n">
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr"/>
-      <c r="R22" s="4" t="inlineStr"/>
-      <c r="S22" s="4" t="inlineStr"/>
-      <c r="T22" s="4" t="inlineStr"/>
-      <c r="U22" s="4" t="inlineStr"/>
-      <c r="V22" s="4" t="inlineStr"/>
-      <c r="W22" s="4" t="inlineStr"/>
-      <c r="X22" s="4" t="inlineStr"/>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr"/>
+      <c r="U22" s="5" t="inlineStr"/>
+      <c r="V22" s="5" t="inlineStr"/>
+      <c r="W22" s="5" t="inlineStr"/>
+      <c r="X22" s="5" t="inlineStr"/>
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="inlineStr"/>
-      <c r="AA22" s="4" t="n"/>
+      <c r="Z22" s="5" t="inlineStr"/>
+      <c r="AA22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>129382</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Mayor Luisito G. Rabat MS</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="L23" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr"/>
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="5" t="n">
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7" t="n">
         <v>44870</v>
       </c>
-      <c r="Q23" s="4" t="inlineStr"/>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr"/>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="4" t="inlineStr"/>
-      <c r="V23" s="4" t="inlineStr"/>
-      <c r="W23" s="4" t="inlineStr"/>
-      <c r="X23" s="4" t="inlineStr"/>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="5" t="inlineStr"/>
+      <c r="V23" s="5" t="inlineStr"/>
+      <c r="W23" s="5" t="inlineStr"/>
+      <c r="X23" s="5" t="inlineStr"/>
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z23" s="4" t="inlineStr"/>
-      <c r="AA23" s="4" t="n"/>
+      <c r="Z23" s="5" t="inlineStr"/>
+      <c r="AA23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>129383</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Mayor Santiago Garcia MS</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="L24" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr"/>
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="5" t="n">
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="7" t="n">
         <v>44870</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr"/>
-      <c r="R24" s="4" t="inlineStr"/>
-      <c r="S24" s="4" t="inlineStr"/>
-      <c r="T24" s="4" t="inlineStr"/>
-      <c r="U24" s="4" t="inlineStr"/>
-      <c r="V24" s="4" t="inlineStr"/>
-      <c r="W24" s="4" t="inlineStr"/>
-      <c r="X24" s="4" t="inlineStr"/>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr"/>
+      <c r="T24" s="5" t="inlineStr"/>
+      <c r="U24" s="5" t="inlineStr"/>
+      <c r="V24" s="5" t="inlineStr"/>
+      <c r="W24" s="5" t="inlineStr"/>
+      <c r="X24" s="5" t="inlineStr"/>
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="inlineStr"/>
-      <c r="AA24" s="4" t="n"/>
+      <c r="Z24" s="5" t="inlineStr"/>
+      <c r="AA24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>205504</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Rabat Rocamora Mati Central School SPED Center</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="L25" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr"/>
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="5" t="n">
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
-      <c r="X25" s="4" t="inlineStr"/>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr"/>
+      <c r="R25" s="5" t="inlineStr"/>
+      <c r="S25" s="5" t="inlineStr"/>
+      <c r="T25" s="5" t="inlineStr"/>
+      <c r="U25" s="5" t="inlineStr"/>
+      <c r="V25" s="5" t="inlineStr"/>
+      <c r="W25" s="5" t="inlineStr"/>
+      <c r="X25" s="5" t="inlineStr"/>
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="inlineStr"/>
-      <c r="AA25" s="4" t="n"/>
+      <c r="Z25" s="5" t="inlineStr"/>
+      <c r="AA25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>500454</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Licop Integrated School</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="L26" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="5" t="n">
+      <c r="O26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr"/>
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr"/>
+      <c r="T26" s="5" t="inlineStr"/>
+      <c r="U26" s="5" t="inlineStr"/>
+      <c r="V26" s="5" t="inlineStr"/>
+      <c r="W26" s="5" t="inlineStr"/>
+      <c r="X26" s="5" t="inlineStr"/>
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="inlineStr"/>
-      <c r="AA26" s="4" t="n"/>
+      <c r="Z26" s="5" t="inlineStr"/>
+      <c r="AA26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>129388</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Antonino Vicentino ES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr"/>
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="5" t="n">
+      <c r="O27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr"/>
-      <c r="T27" s="4" t="inlineStr"/>
-      <c r="U27" s="4" t="inlineStr"/>
-      <c r="V27" s="4" t="inlineStr"/>
-      <c r="W27" s="4" t="inlineStr"/>
-      <c r="X27" s="4" t="inlineStr"/>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr"/>
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr"/>
+      <c r="T27" s="5" t="inlineStr"/>
+      <c r="U27" s="5" t="inlineStr"/>
+      <c r="V27" s="5" t="inlineStr"/>
+      <c r="W27" s="5" t="inlineStr"/>
+      <c r="X27" s="5" t="inlineStr"/>
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="inlineStr"/>
-      <c r="AA27" s="4" t="n"/>
+      <c r="Z27" s="5" t="inlineStr"/>
+      <c r="AA27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>129390</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Bobon ES</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>218862.01</v>
       </c>
-      <c r="L28" s="4" t="inlineStr">
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="5" t="n">
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr"/>
+      <c r="V28" s="5" t="inlineStr"/>
+      <c r="W28" s="5" t="inlineStr"/>
+      <c r="X28" s="5" t="inlineStr"/>
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="inlineStr"/>
-      <c r="AA28" s="4" t="n"/>
+      <c r="Z28" s="5" t="inlineStr"/>
+      <c r="AA28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>129392</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Cabubuanan Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5" t="n">
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q29" s="4" t="inlineStr"/>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="4" t="inlineStr"/>
-      <c r="U29" s="4" t="inlineStr"/>
-      <c r="V29" s="4" t="inlineStr"/>
-      <c r="W29" s="4" t="inlineStr"/>
-      <c r="X29" s="4" t="inlineStr"/>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr"/>
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr"/>
+      <c r="T29" s="5" t="inlineStr"/>
+      <c r="U29" s="5" t="inlineStr"/>
+      <c r="V29" s="5" t="inlineStr"/>
+      <c r="W29" s="5" t="inlineStr"/>
+      <c r="X29" s="5" t="inlineStr"/>
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="inlineStr"/>
-      <c r="AA29" s="4" t="n"/>
+      <c r="Z29" s="5" t="inlineStr"/>
+      <c r="AA29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>129395</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Don Luis Rabat Sr. MS</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L30" s="4" t="inlineStr">
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr"/>
-      <c r="N30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="5" t="n">
+      <c r="O30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q30" s="4" t="inlineStr"/>
-      <c r="R30" s="4" t="inlineStr"/>
-      <c r="S30" s="4" t="inlineStr"/>
-      <c r="T30" s="4" t="inlineStr"/>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr"/>
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr"/>
+      <c r="U30" s="5" t="inlineStr"/>
+      <c r="V30" s="5" t="inlineStr"/>
+      <c r="W30" s="5" t="inlineStr"/>
+      <c r="X30" s="5" t="inlineStr"/>
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="inlineStr"/>
-      <c r="AA30" s="4" t="n"/>
+      <c r="Z30" s="5" t="inlineStr"/>
+      <c r="AA30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>129396</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Don Salvador Lopez ES</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>219912.01</v>
       </c>
-      <c r="L31" s="4" t="inlineStr">
+      <c r="L31" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr"/>
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="5" t="n">
+      <c r="O31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr"/>
-      <c r="W31" s="4" t="inlineStr"/>
-      <c r="X31" s="4" t="inlineStr"/>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Q31" s="5" t="inlineStr"/>
+      <c r="R31" s="5" t="inlineStr"/>
+      <c r="S31" s="5" t="inlineStr"/>
+      <c r="T31" s="5" t="inlineStr"/>
+      <c r="U31" s="5" t="inlineStr"/>
+      <c r="V31" s="5" t="inlineStr"/>
+      <c r="W31" s="5" t="inlineStr"/>
+      <c r="X31" s="5" t="inlineStr"/>
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="inlineStr"/>
-      <c r="AA31" s="4" t="n"/>
+      <c r="Z31" s="5" t="inlineStr"/>
+      <c r="AA31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>129418</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Magum ES</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>220437.01</v>
       </c>
-      <c r="L32" s="4" t="inlineStr">
+      <c r="L32" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" s="4" t="inlineStr"/>
-      <c r="N32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr"/>
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="5" t="n">
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q32" s="4" t="inlineStr"/>
-      <c r="R32" s="4" t="inlineStr"/>
-      <c r="S32" s="4" t="inlineStr"/>
-      <c r="T32" s="4" t="inlineStr"/>
-      <c r="U32" s="4" t="inlineStr"/>
-      <c r="V32" s="4" t="inlineStr"/>
-      <c r="W32" s="4" t="inlineStr"/>
-      <c r="X32" s="4" t="inlineStr"/>
-      <c r="Y32" s="4" t="inlineStr">
+      <c r="Q32" s="5" t="inlineStr"/>
+      <c r="R32" s="5" t="inlineStr"/>
+      <c r="S32" s="5" t="inlineStr"/>
+      <c r="T32" s="5" t="inlineStr"/>
+      <c r="U32" s="5" t="inlineStr"/>
+      <c r="V32" s="5" t="inlineStr"/>
+      <c r="W32" s="5" t="inlineStr"/>
+      <c r="X32" s="5" t="inlineStr"/>
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z32" s="4" t="inlineStr"/>
-      <c r="AA32" s="4" t="n"/>
+      <c r="Z32" s="5" t="inlineStr"/>
+      <c r="AA32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>129398</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Gov. Leopoldo Lopez Sr. MS</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="L33" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr"/>
-      <c r="N33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr"/>
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="5" t="n">
+      <c r="O33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="7" t="n">
         <v>44870</v>
       </c>
-      <c r="Q33" s="4" t="inlineStr"/>
-      <c r="R33" s="4" t="inlineStr"/>
-      <c r="S33" s="4" t="inlineStr"/>
-      <c r="T33" s="4" t="inlineStr"/>
-      <c r="U33" s="4" t="inlineStr"/>
-      <c r="V33" s="4" t="inlineStr"/>
-      <c r="W33" s="4" t="inlineStr"/>
-      <c r="X33" s="4" t="inlineStr"/>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="Q33" s="5" t="inlineStr"/>
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="inlineStr"/>
+      <c r="T33" s="5" t="inlineStr"/>
+      <c r="U33" s="5" t="inlineStr"/>
+      <c r="V33" s="5" t="inlineStr"/>
+      <c r="W33" s="5" t="inlineStr"/>
+      <c r="X33" s="5" t="inlineStr"/>
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="inlineStr"/>
-      <c r="AA33" s="4" t="n"/>
+      <c r="Z33" s="5" t="inlineStr"/>
+      <c r="AA33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>129405</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Taguibo ES</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="L34" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" s="4" t="inlineStr"/>
-      <c r="N34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr"/>
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="5" t="n">
+      <c r="O34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q34" s="4" t="inlineStr"/>
-      <c r="R34" s="4" t="inlineStr"/>
-      <c r="S34" s="4" t="inlineStr"/>
-      <c r="T34" s="4" t="inlineStr"/>
-      <c r="U34" s="4" t="inlineStr"/>
-      <c r="V34" s="4" t="inlineStr"/>
-      <c r="W34" s="4" t="inlineStr"/>
-      <c r="X34" s="4" t="inlineStr"/>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="Q34" s="5" t="inlineStr"/>
+      <c r="R34" s="5" t="inlineStr"/>
+      <c r="S34" s="5" t="inlineStr"/>
+      <c r="T34" s="5" t="inlineStr"/>
+      <c r="U34" s="5" t="inlineStr"/>
+      <c r="V34" s="5" t="inlineStr"/>
+      <c r="W34" s="5" t="inlineStr"/>
+      <c r="X34" s="5" t="inlineStr"/>
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z34" s="4" t="inlineStr"/>
-      <c r="AA34" s="4" t="n"/>
+      <c r="Z34" s="5" t="inlineStr"/>
+      <c r="AA34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>129409</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Vicente Almario Sr. MS</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L35" s="4" t="inlineStr">
+      <c r="L35" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr"/>
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="5" t="n">
+      <c r="O35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q35" s="4" t="inlineStr"/>
-      <c r="R35" s="4" t="inlineStr"/>
-      <c r="S35" s="4" t="inlineStr"/>
-      <c r="T35" s="4" t="inlineStr"/>
-      <c r="U35" s="4" t="inlineStr"/>
-      <c r="V35" s="4" t="inlineStr"/>
-      <c r="W35" s="4" t="inlineStr"/>
-      <c r="X35" s="4" t="inlineStr"/>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="Q35" s="5" t="inlineStr"/>
+      <c r="R35" s="5" t="inlineStr"/>
+      <c r="S35" s="5" t="inlineStr"/>
+      <c r="T35" s="5" t="inlineStr"/>
+      <c r="U35" s="5" t="inlineStr"/>
+      <c r="V35" s="5" t="inlineStr"/>
+      <c r="W35" s="5" t="inlineStr"/>
+      <c r="X35" s="5" t="inlineStr"/>
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="inlineStr"/>
-      <c r="AA35" s="4" t="n"/>
+      <c r="Z35" s="5" t="inlineStr"/>
+      <c r="AA35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>129414</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Francisco Hinayon ES</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L36" s="4" t="inlineStr">
+      <c r="L36" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr"/>
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="5" t="n">
+      <c r="O36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q36" s="4" t="inlineStr"/>
-      <c r="R36" s="4" t="inlineStr"/>
-      <c r="S36" s="4" t="inlineStr"/>
-      <c r="T36" s="4" t="inlineStr"/>
-      <c r="U36" s="4" t="inlineStr"/>
-      <c r="V36" s="4" t="inlineStr"/>
-      <c r="W36" s="4" t="inlineStr"/>
-      <c r="X36" s="4" t="inlineStr"/>
-      <c r="Y36" s="4" t="inlineStr">
+      <c r="Q36" s="5" t="inlineStr"/>
+      <c r="R36" s="5" t="inlineStr"/>
+      <c r="S36" s="5" t="inlineStr"/>
+      <c r="T36" s="5" t="inlineStr"/>
+      <c r="U36" s="5" t="inlineStr"/>
+      <c r="V36" s="5" t="inlineStr"/>
+      <c r="W36" s="5" t="inlineStr"/>
+      <c r="X36" s="5" t="inlineStr"/>
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z36" s="4" t="inlineStr"/>
-      <c r="AA36" s="4" t="n"/>
+      <c r="Z36" s="5" t="inlineStr"/>
+      <c r="AA36" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_HEALTH.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,1121 +453,1153 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="48" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="149" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="19" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="48" customWidth="1" min="6" max="6"/>
+    <col width="29" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="149" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="56" customWidth="1" min="18" max="18"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
     <col width="56" customWidth="1" min="19" max="19"/>
-    <col width="32" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="19" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="40" customWidth="1" min="25" max="25"/>
-    <col width="73" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="56" customWidth="1" min="20" max="20"/>
+    <col width="32" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="40" customWidth="1" min="26" max="26"/>
+    <col width="73" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AA1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Davao City</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>304359</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Daniel R. Aguinaldo NHS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>DAVAO CITY</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="inlineStr"/>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="inlineStr"/>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Construction of Health Facility with 2 units Comfort Rooms and 2 units Handwashing</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>5163932.14</v>
       </c>
-      <c r="L2" s="5" t="inlineStr"/>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="n">
         <v>4464112.6</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>Sept. 29, 2024</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr"/>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>BEFF-L002-2024</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>#3s.2024 INF DL-XI</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>Oct 27-Nov 16, 2023</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>Nov.3, 2023</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>Nov.16, 2023</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>Jan.12, 2024</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>May 29, 2024</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>Panabo General Contractors Development</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>work suspended due to change location and Approval of Demolition Permit</t>
         </is>
       </c>
-      <c r="AA2" s="6" t="n"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>199</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Davao De Oro</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>128302</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Kapatagan ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>LAAK (SAN VICENTE)</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="inlineStr"/>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="inlineStr"/>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="L3" s="5" t="inlineStr"/>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="n">
         <v>3545990.37</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>June 5, 2025</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>June 4, 2025</t>
         </is>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>SDDO-016-2024</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>SDDO-016-2024</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>Aug. 6, 2024</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>Aug. 18, 2024</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>September 9, 2024</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>September 30, 2024</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>January 6, 2025</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>JJR ACE CONSTRUCTION AND SUPPLY CORP</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr"/>
-      <c r="AA3" s="6" t="n"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>128652</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Gov. Dujali ES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>3600000</v>
       </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="n">
         <v>3324097.66</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="P4" s="5" t="n">
         <v>0.98</v>
       </c>
-      <c r="P4" s="5" t="inlineStr"/>
       <c r="Q4" s="5" t="inlineStr"/>
       <c r="R4" s="5" t="inlineStr"/>
       <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>January 10, 2024</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>January 17, 2024</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>January 30, 2924</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>March 19, 2024</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>MJTP Construction</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA4" s="6" t="n"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>201</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Davao del Sur</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>304298</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Tacul Agricultural High School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>MAGSAYSAY</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>4335202</v>
       </c>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="n">
         <v>3444215.43</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>February 11, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>February 11, 2025</t>
         </is>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>DS- SCHBLDG - 2024 - E - LOT 2</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>DS- SCHBLDG - 2024 - E - LOT 2</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>May 21, 2024</t>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>May 28, 2024</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>June 07, 2024</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>August 09, 2024</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>September 5, 2024</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>IRE INDUSTRIAL FACILITIES CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="AA5" s="6" t="n"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>202</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Davao Occidental</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>304292</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>John Martin Johnson High School (Lamidan)</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>DON MARCELINO</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>3265907.06</v>
       </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="n">
         <v>3263892.8</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>November 14,2024</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>November 14,2024</t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>ITB W-02-2024</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>contract no. 2024-007</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>April 15, 2024- April 29, 2024</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>April 29, 2024</t>
         </is>
       </c>
-      <c r="W6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>resolution no. 08,s. 2024</t>
         </is>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>July 17, 2024</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>Digos Constrak Corporation</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr">
+      <c r="AA6" s="5" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA6" s="6" t="n"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>203</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Davao Oriental</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>129356</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Gregorio Moralizon ES 1</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>MANAY</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>5110702.18</v>
       </c>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="n">
         <v>4002640.57</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>August 20, 2024</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>October 16, 2024</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>GS 2023 154</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>2024-002</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>December 8, 2023</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>December 27,2023</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>May 2, 2024</t>
         </is>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>May 22, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>ELLE</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>Completed w/ Time Extension</t>
         </is>
       </c>
-      <c r="AA7" s="6" t="n"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>204</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Digos City</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>304400</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Digos City NHS (Davao Del Sur NHS)</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>CITY OF DIGOS (Capital)</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Construction of Clinic &amp; Const of 4UNITS 3 Seater CR with Handwashing</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>5487480.98</v>
       </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="n">
         <v>4236026.94</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>Nov. 22, 2024</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>Nov. 12, 2024</t>
         </is>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>42059</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>42059</v>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="T8" s="5" t="n">
+        <v>42059</v>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>March 6-26, 2024</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>March 12, 2024</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>March 26, 2024</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>June 06,2024</t>
         </is>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>July 18, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>RRJJ Quinto Builders Corp.</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA8" s="6" t="n"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>205</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Island Garden City of Samal</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>128598</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Angel Villarica Central Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>ISLAND GARDEN CITY OF SAMAL</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>5500000</v>
       </c>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="n">
         <v>4553697.99</v>
       </c>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>September 20, 2024</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>September 2, 2024</t>
         </is>
       </c>
-      <c r="R9" s="5" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>infra 001-11-2023</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>infra 001-11-2023</t>
         </is>
       </c>
-      <c r="T9" s="5" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>October 31, 2023</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>November 8, 2025</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>November 20, 2023</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>December 12, 2025</t>
         </is>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>May 23, 2024</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>R. Fabale Const. Corp.</t>
         </is>
       </c>
-      <c r="Z9" s="5" t="inlineStr">
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA9" s="6" t="n"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>206</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Panabo City</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>129783</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Gredu ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>CITY OF PANABO</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>3000000</v>
       </c>
-      <c r="L10" s="5" t="inlineStr"/>
       <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="P10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="5" t="inlineStr"/>
       <c r="Q10" s="5" t="inlineStr"/>
       <c r="R10" s="5" t="inlineStr"/>
       <c r="S10" s="5" t="inlineStr"/>
@@ -1577,189 +1609,195 @@
       <c r="W10" s="5" t="inlineStr"/>
       <c r="X10" s="5" t="inlineStr"/>
       <c r="Y10" s="5" t="inlineStr"/>
-      <c r="Z10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr"/>
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>DO would like to revert- with request for additional fund</t>
         </is>
       </c>
-      <c r="AA10" s="6" t="n"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Tagum City</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>128768</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>APOKON ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>CITY OF TAGUM (Capital)</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>3000000</v>
       </c>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="n">
         <v>2390532.83</v>
       </c>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="P11" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="P11" s="5" t="inlineStr">
+      <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>March 3, 2025</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>June 30, 2025</t>
         </is>
       </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>NEWCON 2024 - HEALTH FACILITY - RXI - TAGUM CITY – 001</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>NEWCON 2024 - HEALTH FACILITY - RXI - TAGUM CITY – 001</t>
         </is>
       </c>
-      <c r="T11" s="5" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>June 28, 2024</t>
         </is>
       </c>
-      <c r="U11" s="5" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>July 8, 2024</t>
         </is>
       </c>
-      <c r="V11" s="5" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>July 22, 2024</t>
         </is>
       </c>
-      <c r="W11" s="5" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>Aug. 12, 2024</t>
         </is>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>Oct.. 8, 2024</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>Al Handasa Const.</t>
         </is>
       </c>
-      <c r="Z11" s="5" t="inlineStr">
+      <c r="AA11" s="5" t="inlineStr">
         <is>
           <t>Physically Completed</t>
         </is>
       </c>
-      <c r="AA11" s="6" t="n"/>
+      <c r="AB11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>500859</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Igangon Integrated School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR INTEGRATED SCHOOL (OPTION 1C - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 2 SETS OF 12 FAUCETS</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>497885.97</v>
       </c>
-      <c r="L12" s="5" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
       <c r="R12" s="5" t="inlineStr"/>
       <c r="S12" s="5" t="inlineStr"/>
@@ -1770,69 +1808,72 @@
       <c r="X12" s="5" t="inlineStr"/>
       <c r="Y12" s="5" t="inlineStr"/>
       <c r="Z12" s="5" t="inlineStr"/>
-      <c r="AA12" s="6" t="n"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>315906</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Pinamuno National High School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>254314.72</v>
       </c>
-      <c r="L13" s="5" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
       <c r="R13" s="5" t="inlineStr"/>
       <c r="S13" s="5" t="inlineStr"/>
@@ -1843,69 +1884,72 @@
       <c r="X13" s="5" t="inlineStr"/>
       <c r="Y13" s="5" t="inlineStr"/>
       <c r="Z13" s="5" t="inlineStr"/>
-      <c r="AA13" s="6" t="n"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>128581</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Mamangan ES</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>262714.72</v>
       </c>
-      <c r="L14" s="5" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
       <c r="R14" s="5" t="inlineStr"/>
       <c r="S14" s="5" t="inlineStr"/>
@@ -1916,69 +1960,72 @@
       <c r="X14" s="5" t="inlineStr"/>
       <c r="Y14" s="5" t="inlineStr"/>
       <c r="Z14" s="5" t="inlineStr"/>
-      <c r="AA14" s="6" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>128656</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Libuton ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH) - 1 SET OF 7 FAUCETS</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>262714.72</v>
       </c>
-      <c r="L15" s="5" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
       <c r="R15" s="5" t="inlineStr"/>
       <c r="S15" s="5" t="inlineStr"/>
@@ -1989,69 +2036,72 @@
       <c r="X15" s="5" t="inlineStr"/>
       <c r="Y15" s="5" t="inlineStr"/>
       <c r="Z15" s="5" t="inlineStr"/>
-      <c r="AA15" s="6" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>128581</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Mamangan ES</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="J16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>3259817.87</v>
       </c>
-      <c r="L16" s="5" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="inlineStr"/>
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q16" s="5" t="inlineStr"/>
       <c r="R16" s="5" t="inlineStr"/>
       <c r="S16" s="5" t="inlineStr"/>
@@ -2062,69 +2112,72 @@
       <c r="X16" s="5" t="inlineStr"/>
       <c r="Y16" s="5" t="inlineStr"/>
       <c r="Z16" s="5" t="inlineStr"/>
-      <c r="AA16" s="6" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>128590</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Sabangan ES</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="J17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>3213617.87</v>
       </c>
-      <c r="L17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr"/>
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="5" t="inlineStr"/>
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q17" s="5" t="inlineStr"/>
       <c r="R17" s="5" t="inlineStr"/>
       <c r="S17" s="5" t="inlineStr"/>
@@ -2135,69 +2188,72 @@
       <c r="X17" s="5" t="inlineStr"/>
       <c r="Y17" s="5" t="inlineStr"/>
       <c r="Z17" s="5" t="inlineStr"/>
-      <c r="AA17" s="6" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>128657</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Linao ES</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="J18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>REPAIR/CONVERSION OF 1 CL TO SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>1010630.12</v>
       </c>
-      <c r="L18" s="5" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="5" t="inlineStr"/>
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q18" s="5" t="inlineStr"/>
       <c r="R18" s="5" t="inlineStr"/>
       <c r="S18" s="5" t="inlineStr"/>
@@ -2208,69 +2264,72 @@
       <c r="X18" s="5" t="inlineStr"/>
       <c r="Y18" s="5" t="inlineStr"/>
       <c r="Z18" s="5" t="inlineStr"/>
-      <c r="AA18" s="6" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Davao del Norte</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>500859</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Igangon Integrated School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="J19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SCHOOL CLINIC</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>3226217.87</v>
       </c>
-      <c r="L19" s="5" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="5" t="inlineStr"/>
+      <c r="P19" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" s="5" t="inlineStr"/>
       <c r="R19" s="5" t="inlineStr"/>
       <c r="S19" s="5" t="inlineStr"/>
@@ -2281,72 +2340,75 @@
       <c r="X19" s="5" t="inlineStr"/>
       <c r="Y19" s="5" t="inlineStr"/>
       <c r="Z19" s="5" t="inlineStr"/>
-      <c r="AA19" s="6" t="n"/>
+      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>129374</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Badas ES</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="H20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L20" s="5" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="7" t="n">
+      <c r="P20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr"/>
       <c r="R20" s="5" t="inlineStr"/>
       <c r="S20" s="5" t="inlineStr"/>
       <c r="T20" s="5" t="inlineStr"/>
@@ -2354,78 +2416,81 @@
       <c r="V20" s="5" t="inlineStr"/>
       <c r="W20" s="5" t="inlineStr"/>
       <c r="X20" s="5" t="inlineStr"/>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr"/>
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z20" s="5" t="inlineStr"/>
-      <c r="AA20" s="6" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>129380</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Rabat-Rocamora Mati CES I</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="H21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="J21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L21" s="5" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="7" t="n">
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr"/>
       <c r="R21" s="5" t="inlineStr"/>
       <c r="S21" s="5" t="inlineStr"/>
       <c r="T21" s="5" t="inlineStr"/>
@@ -2433,78 +2498,81 @@
       <c r="V21" s="5" t="inlineStr"/>
       <c r="W21" s="5" t="inlineStr"/>
       <c r="X21" s="5" t="inlineStr"/>
-      <c r="Y21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr"/>
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z21" s="5" t="inlineStr"/>
-      <c r="AA21" s="6" t="n"/>
+      <c r="AA21" s="5" t="inlineStr"/>
+      <c r="AB21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>129381</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Rabat-Rocamora Mati CES II</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L22" s="5" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr"/>
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="7" t="n">
+      <c r="P22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr"/>
       <c r="R22" s="5" t="inlineStr"/>
       <c r="S22" s="5" t="inlineStr"/>
       <c r="T22" s="5" t="inlineStr"/>
@@ -2512,78 +2580,81 @@
       <c r="V22" s="5" t="inlineStr"/>
       <c r="W22" s="5" t="inlineStr"/>
       <c r="X22" s="5" t="inlineStr"/>
-      <c r="Y22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr"/>
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z22" s="5" t="inlineStr"/>
-      <c r="AA22" s="6" t="n"/>
+      <c r="AA22" s="5" t="inlineStr"/>
+      <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>129382</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Mayor Luisito G. Rabat MS</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="H23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L23" s="5" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="7" t="n">
+      <c r="P23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="7" t="n">
         <v>44870</v>
       </c>
-      <c r="Q23" s="5" t="inlineStr"/>
       <c r="R23" s="5" t="inlineStr"/>
       <c r="S23" s="5" t="inlineStr"/>
       <c r="T23" s="5" t="inlineStr"/>
@@ -2591,78 +2662,81 @@
       <c r="V23" s="5" t="inlineStr"/>
       <c r="W23" s="5" t="inlineStr"/>
       <c r="X23" s="5" t="inlineStr"/>
-      <c r="Y23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr"/>
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z23" s="5" t="inlineStr"/>
-      <c r="AA23" s="6" t="n"/>
+      <c r="AA23" s="5" t="inlineStr"/>
+      <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>129383</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Mayor Santiago Garcia MS</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="H24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="J24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L24" s="5" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr"/>
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="7" t="n">
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="7" t="n">
         <v>44870</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr"/>
       <c r="R24" s="5" t="inlineStr"/>
       <c r="S24" s="5" t="inlineStr"/>
       <c r="T24" s="5" t="inlineStr"/>
@@ -2670,78 +2744,81 @@
       <c r="V24" s="5" t="inlineStr"/>
       <c r="W24" s="5" t="inlineStr"/>
       <c r="X24" s="5" t="inlineStr"/>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr"/>
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z24" s="5" t="inlineStr"/>
-      <c r="AA24" s="6" t="n"/>
+      <c r="AA24" s="5" t="inlineStr"/>
+      <c r="AB24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>205504</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Rabat Rocamora Mati Central School SPED Center</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="H25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="J25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L25" s="5" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" s="5" t="inlineStr"/>
-      <c r="N25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="7" t="n">
+      <c r="P25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q25" s="5" t="inlineStr"/>
       <c r="R25" s="5" t="inlineStr"/>
       <c r="S25" s="5" t="inlineStr"/>
       <c r="T25" s="5" t="inlineStr"/>
@@ -2749,78 +2826,81 @@
       <c r="V25" s="5" t="inlineStr"/>
       <c r="W25" s="5" t="inlineStr"/>
       <c r="X25" s="5" t="inlineStr"/>
-      <c r="Y25" s="5" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr"/>
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z25" s="5" t="inlineStr"/>
-      <c r="AA25" s="6" t="n"/>
+      <c r="AA25" s="5" t="inlineStr"/>
+      <c r="AB25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>500454</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Licop Integrated School</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="H26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="J26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L26" s="5" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="7" t="n">
+      <c r="P26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q26" s="5" t="inlineStr"/>
       <c r="R26" s="5" t="inlineStr"/>
       <c r="S26" s="5" t="inlineStr"/>
       <c r="T26" s="5" t="inlineStr"/>
@@ -2828,78 +2908,81 @@
       <c r="V26" s="5" t="inlineStr"/>
       <c r="W26" s="5" t="inlineStr"/>
       <c r="X26" s="5" t="inlineStr"/>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr"/>
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z26" s="5" t="inlineStr"/>
-      <c r="AA26" s="6" t="n"/>
+      <c r="AA26" s="5" t="inlineStr"/>
+      <c r="AB26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>129388</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Antonino Vicentino ES</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="H27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="J27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="7" t="n">
+      <c r="P27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q27" s="5" t="inlineStr"/>
       <c r="R27" s="5" t="inlineStr"/>
       <c r="S27" s="5" t="inlineStr"/>
       <c r="T27" s="5" t="inlineStr"/>
@@ -2907,78 +2990,81 @@
       <c r="V27" s="5" t="inlineStr"/>
       <c r="W27" s="5" t="inlineStr"/>
       <c r="X27" s="5" t="inlineStr"/>
-      <c r="Y27" s="5" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr"/>
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z27" s="5" t="inlineStr"/>
-      <c r="AA27" s="6" t="n"/>
+      <c r="AA27" s="5" t="inlineStr"/>
+      <c r="AB27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>129390</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Bobon ES</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="H28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>218862.01</v>
       </c>
-      <c r="L28" s="5" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="7" t="n">
+      <c r="P28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q28" s="5" t="inlineStr"/>
       <c r="R28" s="5" t="inlineStr"/>
       <c r="S28" s="5" t="inlineStr"/>
       <c r="T28" s="5" t="inlineStr"/>
@@ -2986,78 +3072,81 @@
       <c r="V28" s="5" t="inlineStr"/>
       <c r="W28" s="5" t="inlineStr"/>
       <c r="X28" s="5" t="inlineStr"/>
-      <c r="Y28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr"/>
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z28" s="5" t="inlineStr"/>
-      <c r="AA28" s="6" t="n"/>
+      <c r="AA28" s="5" t="inlineStr"/>
+      <c r="AB28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>129392</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Cabubuanan Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="H29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="J29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L29" s="5" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="7" t="n">
+      <c r="P29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q29" s="5" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr"/>
       <c r="S29" s="5" t="inlineStr"/>
       <c r="T29" s="5" t="inlineStr"/>
@@ -3065,78 +3154,81 @@
       <c r="V29" s="5" t="inlineStr"/>
       <c r="W29" s="5" t="inlineStr"/>
       <c r="X29" s="5" t="inlineStr"/>
-      <c r="Y29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr"/>
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z29" s="5" t="inlineStr"/>
-      <c r="AA29" s="6" t="n"/>
+      <c r="AA29" s="5" t="inlineStr"/>
+      <c r="AB29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>129395</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Don Luis Rabat Sr. MS</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="H30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="J30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L30" s="5" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="7" t="n">
+      <c r="P30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr"/>
       <c r="R30" s="5" t="inlineStr"/>
       <c r="S30" s="5" t="inlineStr"/>
       <c r="T30" s="5" t="inlineStr"/>
@@ -3144,78 +3236,81 @@
       <c r="V30" s="5" t="inlineStr"/>
       <c r="W30" s="5" t="inlineStr"/>
       <c r="X30" s="5" t="inlineStr"/>
-      <c r="Y30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr"/>
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z30" s="5" t="inlineStr"/>
-      <c r="AA30" s="6" t="n"/>
+      <c r="AA30" s="5" t="inlineStr"/>
+      <c r="AB30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>129396</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Don Salvador Lopez ES</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="H31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="J31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>219912.01</v>
       </c>
-      <c r="L31" s="5" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" s="5" t="inlineStr"/>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="7" t="n">
+      <c r="P31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q31" s="5" t="inlineStr"/>
       <c r="R31" s="5" t="inlineStr"/>
       <c r="S31" s="5" t="inlineStr"/>
       <c r="T31" s="5" t="inlineStr"/>
@@ -3223,78 +3318,81 @@
       <c r="V31" s="5" t="inlineStr"/>
       <c r="W31" s="5" t="inlineStr"/>
       <c r="X31" s="5" t="inlineStr"/>
-      <c r="Y31" s="5" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr"/>
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z31" s="5" t="inlineStr"/>
-      <c r="AA31" s="6" t="n"/>
+      <c r="AA31" s="5" t="inlineStr"/>
+      <c r="AB31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>129418</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Magum ES</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="H32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="J32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>220437.01</v>
       </c>
-      <c r="L32" s="5" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" s="5" t="inlineStr"/>
-      <c r="N32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr"/>
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="7" t="n">
+      <c r="P32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q32" s="5" t="inlineStr"/>
       <c r="R32" s="5" t="inlineStr"/>
       <c r="S32" s="5" t="inlineStr"/>
       <c r="T32" s="5" t="inlineStr"/>
@@ -3302,78 +3400,81 @@
       <c r="V32" s="5" t="inlineStr"/>
       <c r="W32" s="5" t="inlineStr"/>
       <c r="X32" s="5" t="inlineStr"/>
-      <c r="Y32" s="5" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr"/>
+      <c r="Z32" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z32" s="5" t="inlineStr"/>
-      <c r="AA32" s="6" t="n"/>
+      <c r="AA32" s="5" t="inlineStr"/>
+      <c r="AB32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>1483</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>129398</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Gov. Leopoldo Lopez Sr. MS</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="H33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="J33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L33" s="5" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" s="5" t="inlineStr"/>
-      <c r="N33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr"/>
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="7" t="n">
+      <c r="P33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="7" t="n">
         <v>44870</v>
       </c>
-      <c r="Q33" s="5" t="inlineStr"/>
       <c r="R33" s="5" t="inlineStr"/>
       <c r="S33" s="5" t="inlineStr"/>
       <c r="T33" s="5" t="inlineStr"/>
@@ -3381,78 +3482,81 @@
       <c r="V33" s="5" t="inlineStr"/>
       <c r="W33" s="5" t="inlineStr"/>
       <c r="X33" s="5" t="inlineStr"/>
-      <c r="Y33" s="5" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr"/>
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>MATT GLASS ALUMINUM SUPPLY</t>
         </is>
       </c>
-      <c r="Z33" s="5" t="inlineStr"/>
-      <c r="AA33" s="6" t="n"/>
+      <c r="AA33" s="5" t="inlineStr"/>
+      <c r="AB33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>1484</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>129405</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Taguibo ES</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="H34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="J34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L34" s="5" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" s="5" t="inlineStr"/>
-      <c r="N34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr"/>
+      <c r="O34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="7" t="n">
+      <c r="P34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q34" s="5" t="inlineStr"/>
       <c r="R34" s="5" t="inlineStr"/>
       <c r="S34" s="5" t="inlineStr"/>
       <c r="T34" s="5" t="inlineStr"/>
@@ -3460,78 +3564,81 @@
       <c r="V34" s="5" t="inlineStr"/>
       <c r="W34" s="5" t="inlineStr"/>
       <c r="X34" s="5" t="inlineStr"/>
-      <c r="Y34" s="5" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr"/>
+      <c r="Z34" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z34" s="5" t="inlineStr"/>
-      <c r="AA34" s="6" t="n"/>
+      <c r="AA34" s="5" t="inlineStr"/>
+      <c r="AB34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>1485</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>129409</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Vicente Almario Sr. MS</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="H35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="J35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>214662.01</v>
       </c>
-      <c r="L35" s="5" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" s="5" t="inlineStr"/>
-      <c r="N35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr"/>
+      <c r="O35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="7" t="n">
+      <c r="P35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q35" s="5" t="inlineStr"/>
       <c r="R35" s="5" t="inlineStr"/>
       <c r="S35" s="5" t="inlineStr"/>
       <c r="T35" s="5" t="inlineStr"/>
@@ -3539,78 +3646,81 @@
       <c r="V35" s="5" t="inlineStr"/>
       <c r="W35" s="5" t="inlineStr"/>
       <c r="X35" s="5" t="inlineStr"/>
-      <c r="Y35" s="5" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr"/>
+      <c r="Z35" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z35" s="5" t="inlineStr"/>
-      <c r="AA35" s="6" t="n"/>
+      <c r="AA35" s="5" t="inlineStr"/>
+      <c r="AB35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>1486</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2022</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Region XI</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Mati City</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>129414</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Francisco Hinayon ES</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>CITY OF MATI (Capital)</t>
         </is>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="H36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="J36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF GROUP HANDWASHING FACILITY - FOR ELEMENTARY (OPTION 1A - WITH ROOFING, WITH COUNTER WITH TILE FINISH 200MM ELEVATION)</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>220962.01</v>
       </c>
-      <c r="L36" s="5" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" s="5" t="inlineStr"/>
-      <c r="N36" s="5" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr"/>
+      <c r="O36" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="7" t="n">
+      <c r="P36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="7" t="n">
         <v>44851</v>
       </c>
-      <c r="Q36" s="5" t="inlineStr"/>
       <c r="R36" s="5" t="inlineStr"/>
       <c r="S36" s="5" t="inlineStr"/>
       <c r="T36" s="5" t="inlineStr"/>
@@ -3618,17 +3728,18 @@
       <c r="V36" s="5" t="inlineStr"/>
       <c r="W36" s="5" t="inlineStr"/>
       <c r="X36" s="5" t="inlineStr"/>
-      <c r="Y36" s="5" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr"/>
+      <c r="Z36" s="5" t="inlineStr">
         <is>
           <t>R. BAUDON CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z36" s="5" t="inlineStr"/>
-      <c r="AA36" s="6" t="n"/>
+      <c r="AA36" s="5" t="inlineStr"/>
+      <c r="AB36" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA36" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB36" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
